--- a/biology/Zoologie/Euproserpinus_phaeton/Euproserpinus_phaeton.xlsx
+++ b/biology/Zoologie/Euproserpinus_phaeton/Euproserpinus_phaeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euproserpinus phaeton est une espèce de lépidoptère de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini, de la sous-tribu des Macroglossina et du genre Euproserpinus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de l'aile antérieure est de 32-42 mm. La partie supérieure de l'abdomen a des touffes blanc crème et une bande blanche dorsale discontinue. La face supérieure aile antérieure a une zone médiane qui présente principalement un défaut des lignes transversales. Le dessus des ailes postérieures a une bande marginale noire rectiligne avec des écailles noires. Le revers de l'aile postérieure ne porte pas de marques basales noires comme celle de face dorsale.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Distribution
 Il se trouve de la Californie du sud au Mexique (Basse-Californie du Sud). L'espèce a également été signalée dans le sud-ouest de Arizona.
@@ -576,12 +592,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il y a une génération par an. Les adultes volent de février à avril. 
-Alimentation
-Les adultes : le nectar des fleurs pendant la journée.
-Les chenilles se nourrissent de plantes de la famille des Onagraceae[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a une génération par an. Les adultes volent de février à avril. 
+</t>
         </is>
       </c>
     </row>
@@ -606,16 +622,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les adultes : le nectar des fleurs pendant la journée.
+Les chenilles se nourrissent de plantes de la famille des Onagraceae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euproserpinus_phaeton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euproserpinus_phaeton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Euproserpinus phaeton a été décrite par les entomologistes britanniques Augustus Radcliffe Grote et Herbert C. Robinson en 1865[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Euproserpinus phaeton a été décrite par les entomologistes britanniques Augustus Radcliffe Grote et Herbert C. Robinson en 1865.
 C'est l’espèce type pour le genre. La localité type est la Californie.
-Synonymie
-Macroglossa erato Boisduval, 1868[3].
-Euproserpinus phaeton mojave Comstock, 1938[4].</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euproserpinus_phaeton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euproserpinus_phaeton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Macroglossa erato Boisduval, 1868.
+Euproserpinus phaeton mojave Comstock, 1938.</t>
         </is>
       </c>
     </row>
